--- a/VersionRecords/Version 5.1.1/定时器/新增定时器 (磐石组).xlsx
+++ b/VersionRecords/Version 5.1.1/定时器/新增定时器 (磐石组).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version 5.1.1\定时器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1\定时器\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -740,7 +740,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
